--- a/biology/Botanique/Liste_des_communes_viticoles_de_France/Liste_des_communes_viticoles_de_France.xlsx
+++ b/biology/Botanique/Liste_des_communes_viticoles_de_France/Liste_des_communes_viticoles_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voici les communes viticoles françaises classées par région viticole et par ordre alphabétique. En 2012, sur 36 565 communes métropolitaines, on dénombre 19 867 communes françaises ayant le droit de produire au moins un vin labellisé (IGP, AOC-AOP)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici les communes viticoles françaises classées par région viticole et par ordre alphabétique. En 2012, sur 36 565 communes métropolitaines, on dénombre 19 867 communes françaises ayant le droit de produire au moins un vin labellisé (IGP, AOC-AOP).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Alsace</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammerschwihr, Barr, Beblenheim, Bergheim, Colmar, Dambach-la-Ville, Dorlisheim, Gueberschwihr, Hattstatt, Hunawihr, Ingersheim, Kientzheim, Obernai, Pfaffenheim, Ribeauvillé, Rouffach, Sigolsheim, Turckheim, Wettolsheim, Wolxheim.
 </t>
@@ -542,7 +556,9 @@
           <t>Beaujolais</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le décret de 2009, la récolte des raisins, la vinification et l'élaboration des vins sont assurées sur le territoire des communes suivantes :
 département du Rhône : Alix, Anse, L'Arbresle, Les Ardillats, Arnas, Bagnols, Beaujeu, Belleville, Belmont-d'Azergues, Blacé, Bully, Cercié, Chambost-Allières, Chamelet, Charentay, Charnay, Châtillon, Chazay-d'Azergues, Chénas, Chessy, Chiroubles, Cogny, Corcelles-en-Beaujolais, Dareizé, Denicé, Émeringes, Fleurie, Frontenas, Gleizé, Jarnioux, Juliénas, Jullié, Lacenas, Lachassagne, Lancié, Lantignié, Le Bois-d'Oingt, Le Breuil, Légny, Létra, Liergues, Limas, Lozanne, Lucenay, Marchampt, Marcy, Moiré, Montmelas-Saint-Sorlin, Morancé, Nuelles, Odenas, Oingt, Les Olmes, Le Perréon, Pommiers, Pouilly-le-Monial, Quincié-en-Beaujolais, Régnié-Durette, Rivolet, Saint-Clément-sur-Valsonne, Saint-Cyr-le-Chatoux, Saint-Didier-sur-Beaujeu, Saint-Étienne-des-Oullières, Saint-Étienne-la-Varenne, Saint-Georges-de-Reneins, Saint-Germain-sur-l'Arbresle, Saint-Jean-d'Ardières, Saint-Jean-des-Vignes, Saint-Julien, Saint-Just-d'Avray, Saint-Lager, Saint-Laurent-d'Oingt, Saint-Loup, Saint-Romain-de-Popey, Saint-Vérand, Sainte-Paule, Salles-Arbuissonnas-en-Beaujolais, Sarcey, Ternand, Theizé, Vaux-en-Beaujolais, Vauxrenard, Vernay, Ville-sur-Jarnioux et Villié-Morgon.
@@ -575,7 +591,9 @@
           <t>Bordeaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation Bordeaux comprend toutes les communes également aptes aux appellations plus restrictives du vignoble de Bordeaux.
 Cette liste comprend les communes suivantes : Abzac, Aillas, Ambarès-et-Lagrave, Ambès, Anglade, Arbanats, Arbis, Arcins, Arsac, Artigues-près-Bordeaux, Arveyres, Asques, Aubiac, Aubie-et-Espessas, Auriolles, Auros, Avensan, Ayguemorte-les-Graves, Bagas, Baigneaux, Barie, Baron, Barsac, Bassanne, Bassens, Baurech, Bayas, Bayon-sur-Gironde, Bazas, Beautiran, Bégadan, Bègles, Béguey, Bellebat, Bellefond, Belvès-de-Castillon, Bernos-Beaulac, Berson, Berthez, Beychac-et-Caillau, Bieujac, Birac, Blaignac, Blaignan, Blanquefort, Blasimon, Blaye, Blésignac, Bommes, Bonnetan, Bonzac, Bordeaux, Bossugan, Bouliac, Bourdelles, Bourg, Branne, Brannens, Braud-et-Saint-Louis, Brouqueyran, Bruges, Budos, Cabanac-et-Villagrains, Cabara, Cadarsac, Cadaujac, Cadillac, Cadillac-en-Fronsadais, Camarsac, Cambes, Camblanes-et-Meynac, Camiac-et-Saint-Denis, Camiran, Camps-sur-l'Isle, Campugnan, Canéjan, Cantenac, Cantois, Capian, Caplong, Carbon-Blanc, Cardan, Carignan-de-Bordeaux, Cars, Cartelègue, Casseuil, Castelmoron-d'Albret, Castelnau-de-Médoc, Castelviel, Castets-en-Dorthe, Castillon-de-Castets, Castillon-la-Bataille, Castres-Gironde, Caudrot, Caumont, Cauvignac, Cavignac, Cazats, Cazaugitat, Cénac, Cenon, Cérons, Cessac, Cestas, Cézac, Chamadelle, Cissac-Médoc, Civrac-de-Blaye, Civrac-de-Dordogne, Civrac-en-Médoc, Cleyrac, Coimères, Coirac, Comps, Coubeyrac, Couquèques, Courpiac, Cours-de-Monségur, Cours-les-Bains, Coutras, Coutures, Créon, Croignon, Cubnezais, Cubzac-les-Ponts, Cudos, Cursan, Cussac-Fort-Médoc, Daignac, Dardenac, Daubèze, Dieulivol, Donnezac, Donzac, Doulezon, Escoussans, Espiet, Etauliers, Eynesse, Eyrans, Eysines, Faleyras, Fargues, Fargues-Saint-Hilaire, Flaujagues, Floirac, Floudès, Fontet, Fossès-et-Baleyssac, Fours, Francs, Fronsac, Frontenac, Gabarnac, Gaillan-en-Médoc, Gajac, Galgon, Gans, Gardegan-et-Tourtirac, Gauriac, Gauriaguet, Générac, Génissac, Gensac, Gironde-sur-Dropt, Gornac, Gours, Gradignan, Grayan-et-l'Hôpital, Grézillac, Grignols, Guillac, Guillos, Guîtres, Haux, Hure, Illats, Isle-Saint-Georges, Izon, Jau-Dignac-et-Loirac, Jugazan, Juillac, La Brède, La Lande-de-Fronsac, La Réole, La Rivière, La Roquille, La Sauve, Labarde, Labescau, Ladaux, Lados, Lagorce, Lalande-de-Pomerol, Lamarque, Lamothe-Landerron, Landerrouat, Landerrouet-sur-Ségur, Landiras, Langoiran, Langon, Lansac, Lapouyade, Laroque, Laruscade, Latresne, Lavazan, Le Bouscat, Le Fieu, Le Haillan, Le Nizan, Le Pian-Médoc, Le Pian-sur-Garonne, Le Pout, Le Puy, Le Taillan-Médoc, Le Tourne, Le Verdon-sur-Mer, Léogeats, Léognan, Les Artigues-de-Lussac, Les Billaux, Les Eglisottes-et-Chalaures, Les Esseintes, Les Lèves-et-Thoumeyragues, Les Peintures, Les Salles, Lesparre-Médoc, Lestiac-sur-Garonne, Libourne, Lignan-de-Bazas, Lignan-de-Bordeaux, Ligueux, Listrac-de-Durèze, Listrac-Médoc, Lormont, Loubens, Loupes, Loupiac, Loupiac-de-la-Réole, Ludon-Médoc, Lugaignac, Lugasson, Lugon-et-l'Ile-du-Carnay, Lussac, Macau, Madirac, Maransin, Marcenais, Marcillac, Margaux, Margueron, Marimbault, Marions, Marsas, Martignas-sur-Jalle, Martillac, Martres, Masseilles, Massugas, Mauriac, Mazères, Mazion, Mérignac, Mérignas, Mesterrieux, Mombrier, Mongauzy, Monprimblanc, Monségur, Montagne, Montagoudin, Montignac, Montussan, Morizès, Mouillac, Mouliets-et-Villemartin, Moulis-en-Médoc, Moulon, Mourens, Naujac-sur-Mer, Naujan-et-Postiac, Néac, Nérigean, Neuffons, Noaillac, Noaillan, Omet, Ordonnac, Paillet, Parempuyre, Pauillac, Pellegrue, Périssac, Pessac, Pessac-sur-Dordogne, Petit-Palais-et-Cornemps, Peujard, Pineuilh, Plassac, Pleine-Selve, Podensac, Pomerol, Pompéjac, Pompignac, Pondaurat, Porchères, Portets, Préchac, Preignac, Prignac-en-Médoc, Prignac-et-Marcamps, Pugnac, Puisseguin, Pujols, Pujols-sur-Ciron, Puybarban, Puynormand, Queyrac, Quinsac, Rauzan, Reignac, Rimons, Riocaud, Rions, Roaillan, Romagne, Roquebrune, Ruch, Sablons, Sadirac, Saillans, Saint-Aignan, Saint-André-de-Cubzac, Saint-André-du-Bois, Saint-André-et-Appelles, Saint-Androny, Saint-Antoine, Saint-Antoine-du-Queyret, Saint-Antoine-sur-l'Isle, Saint-Aubin-de-Blaye, Saint-Aubin-de-Branne, Saint-Aubin-de-Médoc, Saint-Avit-de-Soulège, Saint-Avit-Saint-Nazaire, Saint-Brice, Saint-Caprais-de-Blaye, Saint-Caprais-de-Bordeaux, Saint-Christoly-de-Blaye, Saint-Christoly-Médoc, Saint-Christophe-de-Double, Saint-Christophe-des-Bardes, Saint-Cibard, Saint-Ciers-d'Abzac, Saint-Ciers-de-Canesse, Saint-Ciers-sur-Gironde, Sainte-Colombe, Saint-Côme, Sainte-Croix-du-Mont, Saint-Denis-de-Pile, Saint-Émilion, Saint-Estèphe, Saint-Étienne-de-Lisse, Sainte-Eulalie, Saint-Exupéry, Saint-Félix-de-Foncaude, Saint-Ferme, Sainte-Florence, Sainte-Foy-la-Grande, Sainte-Foy-la-Longue, Sainte-Gemme, Saint-Genès-de-Blaye, Saint-Genès-de-Castillon, Saint-Genès-de-Fronsac, Saint-Genès-de-Lombaud, Saint-Genis-du-Bois, Saint-Germain-de-Grave, Saint-Germain-de-la-Rivière, Saint-Germain-d'Esteuil, Saint-Germain-du-Puch, Saint-Gervais, Saint-Girons-d'Aiguevives, Sainte-Hélène, Saint-Hilaire-de-la-Noaille, Saint-Hilaire-du-Bois, Saint-Hippolyte, Saint-Jean-de-Blaignac, Saint-Jean-d'Illac, Saint-Julien-Beychevelle, Saint-Laurent-d'Arce, Saint-Laurent-des-Combes, Saint-Laurent-du-Bois, Saint-Laurent-du-Plan, Saint-Laurent-Médoc, Saint-Léon, Saint-Loubert, Saint-Loubès, Saint-Louis-de-Montferrand, Saint-Macaire, Saint-Magne-de-Castillon, Saint-Maixant, Saint-Mariens, Saint-Martial, Saint-Martin-de-Laye, Saint-Martin-de-Lerm, Saint-Martin-de-Sescas, Saint-Martin-du-Bois, Saint-Martin-du-Puy, Saint-Martin-Lacaussade, Saint-Médard-de-Guizières, Saint-Médard-d'Eyrans, Saint-Médard-en-Jalles, Saint-Michel-de-Fronsac, Saint-Michel-de-Lapujade, Saint-Michel-de-Rieufret, Saint-Morillon, Saint-Palais, Saint-Pardon-de-Conques, Saint-Paul, Saint-Pey-d'Armens, Saint-Pey-de-Castets, Saint-Philippe-d'Aiguille, Saint-Philippe-du-Seignal, Saint-Pierre-d'Aurillac, Saint-Pierre-de-Bat, Saint-Pierre-de-Mons, Saint-Quentin-de-Baron, Saint-Quentin-de-Caplong, Sainte-Radegonde, Saint-Romain-la-Virvée, Saint-Sauveur, Saint-Sauveur-de-Puynormand, Saint-Savin, Saint-Selve, Saint-Seurin-de-Bourg, Saint-Seurin-de-Cadourne, Saint-Seurin-de-Cursac, Saint-Seurin-sur-l'Isle, Saint-Sève, Saint-Sulpice-de-Faleyrens, Saint-Sulpice-de-Guilleragues, Saint-Sulpice-de-Pommiers, Saint-Sulpice-et-Cameyrac, Sainte-Terre, Saint-Trojan, Saint-Vincent-de-Paul, Saint-Vincent-de-Pertignas, Saint-Vivien-de-Blaye, Saint-Vivien-de-Médoc, Saint-Vivien-de-Monségur, Saint-Yzan-de-Soudiac, Saint-Yzans-de-Médoc, Salaunes, Salignac, Sallebœuf, Samonac, Saucats, Saugon, Sauternes, Sauveterre-de-Guyenne, Sauviac, Savignac, Savignac-de-l'Isle, Semens, Sendets, Sigalens, Sillas, Soulac-sur-Mer, Soulignac, Soussac, Soussans, Tabanac, Taillecavat, Talais, Talence, Targon, Tarnès, Tauriac, Tayac, Teuillac, Tizac-de-Curton, Tizac-de-Lapouyade, Toulenne, Tresses, Uzeste, Valeyrac, Vayres, Vendays-Montalivet, Vensac, Vérac, Verdelais, Vertheuil, Vignonet, Villandraut, Villegouge, Villenave-de-Rions, Villenave-d'Ornon, Villeneuve, Virelade, Virsac et Yvrac.
@@ -607,7 +625,9 @@
           <t>Bourgogne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aloxe-Corton, Auxey-Duresse, Beaune, Beine, Chablis, Chassagne-Montrachet, Chitry, Chorey-lès-Beaune, Clessé, Coulanges-la-Vineuse, Épineuil, Fuissé, Gevrey-Chambertin, Givry, Igé, Irancy, Jussy, Ladoix-Serrigny, Loché, Mâcon, Maranges, Marsannay-la-Côte, Mercurey, Meursault, Migé, Morey-Saint-Denis, Mouffy, Nuits-Saint-Georges, Pernand-Vergelesses, Pommard, Puligny-Montrachet, Rully, Saint-Bris-le-Vineux, Saint-Romain, Santenay, Savigny-lès-Beaune, Tonnerre, Verzé, Vézelay, Vinzelles, Viré, Volnay.
 </t>
@@ -638,7 +658,9 @@
           <t>Bugey</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire d'appellation du vignoble du Bugey s'étend sur les communes suivantes :
 L'Abergement-de-Varey, Ambérieu-en-Bugey, Ambléon, Andert-et-Condon, Anglefort, Arbignieu, Argis, Artemare, Belley, Belmont, Benonces, Béon, Boyeux-Saint-Jérôme, Brens, Briord, Cerdon, Ceyzériat, Ceyzérieu, Chanay, Chavornay, Chazey-Bons, Cheignieu-la-Balme, Contrevoz, Conzieu, Corbonod, Cressin-Rochefort, Culoz, Cuzieu, Flaxieu, Groslée, Jujurieux, Journans, Lagnieu, Lavours, Lhuis, Magnieu, Marignieu, Massignieu-de-Rives, Mérignat, Montagnieu, Nattages, Parves, Peyrieu, Pollieu, Poncin, Pugieu, Rossillon, Saint-Alban, Saint-Benoît, Saint-Germain-les-Paroisses, Saint-Champ-Chatonod, Saint-Martin-de-Bavel, Saint-Martin-du-Mont, Saint-Sorlin, Seillonnaz, Seyssel, Talissieu, Torcieu, Tossiat, Vaux-en-Bugey, Villebois, Virignin, Virieu-le-Grand, Vieu et Vongnes.
@@ -670,7 +692,9 @@
           <t>Champagne</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bouzy, Reims, Les Riceys, Aÿ, Le Breuil, Le Mesnil-sur-Oger, Avize, Oger, Cuis, Cramant, Vertus, Bergères-lès-Vertus.
 </t>
@@ -701,7 +725,9 @@
           <t>Corse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le vignoble s'étend sur les communes de :
 Département de Haute-Corse : Aghione, Aiti, Aléria, Algajola, Altiani, Antisanti, Aregno, Avapessa, Barrettali, Belgodère, Biguglia, Borgo, Brando, Cagnano, Calenzana, Calvi, Campi, Canale-di-Verde, Canari, Canavaggia, Casevecchie, Castellare-di-Casinca, Castello-di-Rostino, Castifao, Castirla, Cateri, Centuri, Cervione, Chiatra, Corbara, Costa, Erbajolo, Ersa, Feliceto, Focicchia, Furiani, Galéria, Gavignano, Ghisonaccia, Ghisoni, Giuncaggio, L'Ile-Rousse, Lama, Lavatoggio, Linguizzetta, Lucciana, Lugo-di-Nazza, Lumio, Luri, Manso, Meria, Moltifao, Moncale, Monte, Montegrosso, Monticello, Morosaglia, Morsiglia, Muro, Nessa, Nonza, Novella, Occhiatana, Ogliastro, Olcani, Olmeta-di-Capocorso, Olmo, Omessa, Palasca, Pancheraccia, Penta-di-Casinca, Piedicorte-di-Gaggio, Piedigriggio, Pietracorbara, Pietra-di-Verde, Pietralba, Pietraserena, Pietroso, Pigna, Pino, Poggio-di-Nazza, Poggio-Mezzana, Prato-di-Giovellina, Prunelli-di-Casacconi, Prunelli-di-Fiumorbo, Rogliano, Saliceto, San-Giuliano, San-Martino-di-Lota, San-Nicolao, Sant'Andréa-di-Cotone, Sant'Antonino, Santa-Lucia-di-Moriani, Santa-Maria-di-Lota, Santa-Maria-Poggio, Santa-Reparata-di-Balagna, Serra-di-Fiumorbo, Sisco, Solaro, Sorbo-Ocagnano, Soveria, Speloncato, Taglio-Isolaccio, Talasani, Tallone, Tomino, Tox, Tralonca, Urtaca, Valle-di-Campoloro, Ventiseri, Venzolasca, Vescovato, Vezzani, Vignale, Ville-di-Paraso, Ville-di-Pietrabugno, Zalana et Zilia.
@@ -733,7 +759,9 @@
           <t>Jura</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les communes viticoles du vignoble du Jura sont :
 Aiglepierre, Arbois, Arc-et-Senans, Arlay, Les Arsures, Augea, Balanod, Baume-les-Messieurs, Beaufort, Bersaillin, Bréry, Buvilly, Cesancey, Champagne-sur-Loue, Château-Chalon, Chille, Chilly-le-Vignoble, Chissey-sur-Loue, Conliège, Courbouzon, Cousance, Cramans, Crançot, Darbonnay, Domblans, L'Étoile, Frontenay, Gevingey, Gizia, Grange de Vaivre, Grusse, Lavigny, Lons-le-Saunier, Macornay, Marnoz, Mathenay, Maynal, Menétru-le-Vignoble, Mesnay, Miéry, Monay, Montaigu, Montain, Montigny-lès-Arsures, Montmorot, Mouchard, Nevy-sur-Seille, Orbagna, Pannessières, Passenans, Perrigny, Poligny, Port-Lesney, Pupillin, Quintigny, Rotalier, Ruffey-sur-Seille, Saint-Amour, Saint-Didier, Saint-Germain-lès-Arlay, Saint-Jean-d'Étreux, Saint-Lothain, Sainte-Agnès, Salins-les-Bains, Sellières, Toulouse-le-Château, Trenal, Vadans, Vercia, Vernantois, Le Vernois, Villette-lès-Arbois, Vincelles et Voiteur.
@@ -765,9 +793,11 @@
           <t>Languedoc-Roussillon</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La récolte des raisins, la vinification et l'élaboration des vins du vignoble du Languedoc-Roussillon sont assurées sur le territoire de 195 communes de l'Aude, 160 de l'Hérault, 122 des Pyrénées-Orientales et 19 du Gard[2], soit un total de 496 communes.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La récolte des raisins, la vinification et l'élaboration des vins du vignoble du Languedoc-Roussillon sont assurées sur le territoire de 195 communes de l'Aude, 160 de l'Hérault, 122 des Pyrénées-Orientales et 19 du Gard, soit un total de 496 communes.
 Département du Gard : Aspères, Brouzet-lès-Quissac, Calvisson, Carnas, Corconne, Crespian, Fontanès, Gailhan, Junas, Langlade, Lecques, Montmirat, Nîmes, Saint-Clément, Salinelles, Sardan, Sommières, Souvignargues et Vic-le-Fesq.
 Département de l'Hérault : Adissan, Agel, Aigne, Aigues-Vives, Aniane, Arboras, Argelliers, Aspiran, Assas, Assignan, Aumelas, Autignac, Azillanet, Babeau-Bouldoux, Beaufort, Beaulieu, Berlou, Béziers, Boisseron, Le Bosc, Brissac, Cabrerolles, Cabrières, Campagne, Cassagnoles, Castelnau-le-Lez, Castries, La Caunette, Causse-de-la-Selle, Causses-et-Veyran, Caussiniojouls, Caux, Cazedarnes, Cazevieille, Cazouls-lès-Béziers, Cébazan, Cessenon-sur-Orb, Cesseras, Ceyras, Claret, Combaillaux, Cournonsec, Cournonterral, Creissan, Cruzy, Faugères, Félines-Minervois, Ferrières-Poussarou, Fontanès, Fontès, Fos, Fouzilhon, Gabian, Garrigues, Gignac, Guzargues, Jonquières, Juvignac, Lagamas, La Livinière, Laurens, Lauret, Lauroux, Lavérune, Lieuran-Cabrières, Lunel, Lunel-Viel, Les Matelles, Mauguio, Mérifons, Minerve, Montagnac, Montesquieu, Montbazin, Montouliers, Montoulieu, Montpellier, Montpeyroux, Moulès-et-Baucels, Murles, Murviel-lès-Béziers, Murviel-lès-Montpellier, Neffiès, Nissan-lez-Enserune, Nizas, Octon, Olonzac, Oupia, Paulhan, Pégairolles-de-Buèges, Pégairolles-de-l'Escalette, Péret, Pézenas, Pierrerue, Pignan, Plaissan, Poujols, Poussan, Prades-le-Lez, Prades-sur-Vernazobre, Puéchabon, Puisserguier, Quarante, Restinclières, Roquebrun, Roquessels, Roujan, Saint-André-de-Buèges, Saint-André-de-Sangonis, Saint-Aunès, Saint-Bauzille-de-la-Sylve, Saint-Bauzille-de-Montmel, Saint-Clément-de-Rivière, Saint-Chinian, Saint-Christol, Saint-Drézéry, Saint-Félix-de-Lodez, Saint-Gély-du-Fesc, Saint-Geniès-des-Mourgues, Saint-Georges-d'Orques, Saint-Guiraud, Saint-Jean-de-Cuculles, Saint-Jean-de-la-Blaquière, Saint-Jean-de-Buèges, Saint-Jean-de-Fos, Saint-Jean-de-Minervois, Saint-Mathieu-de-Tréviers, Saint-Nazaire-de-Ladarez, Saint-Pargoire, Saint-Pons-de-Mauchiens, Saint-Privat, Saint-Saturnin-de-Lucian, Saint-Sériès, Saint-Vincent-de-Barbeyrargues, Sainte-Croix-de-Quintillargues, Saturargues, Sauteyrargues, Sauvian, Sérignan, Siran, Soubès, Sussargues, Le Triadou, Usclas-du-Bosc, Vacquières, Vailhan, Vailhauquès, Valflaunès, Vendémian, Vendres, Vérargues, Vieussan, Villeneuve-lès-Maguelonne, Villeveyrac et Villespassans.
 Département de l'Aude : Aigues-Vives, Ajac, Albas, Alet-les-Bains, Alzonne, Antugnac, Aragon, Argeliers, Argens-Minervois, Armissan, Arquettes-en-Val, Azille, Badens, Bages, Bagnoles, Barbaira, Bizanet, Bize-Minervois, Blomac, Bouilhonnac, Bouriège, Boutenac, Cabrespine, Campagne-sur-Aude, Camplong-d'Aude, Canet, Capendu, Cascastel-des-Corbières, Cassaignes, Castelnau-d'Aude, Castelreng, Caunes-Minervois, Caunettes-en-Val, Caves, Cépie, Comigne, Conilhac-Corbières, Conilhac-de-la-Montagne, Conques-sur-Orbiel, Couiza, Cournanel, Coustaussa, Coustouge, Cruscades, Cucugnan, Davejean, Dernacueillette, La Digne-d'Amont, La Digne-d'Aval, Douzens, Duilhac-sous-Peyrepertuse, Durban-Corbières, Embres-et-Castelmaure, Escales, Espéraza, Fa, Fabrezan, Félines-Termenès, Ferrals-les-Corbières, Festes-et-Saint-André, Feuilla, Fitou, Fleury, Floure, Fontcouverte, Fontiès-d'Aude, Fontjoncouse, Fournes-Cabardès, Fraisse-Cabardès, Fraissé-des-Corbières, Gaja-et-Villedieu, Gardie, Ginestas, Gruissan, Homps, Les Ilhes, Jonquières, Labastide-en-Val, Ladern-sur-Lauquet, Lagrasse, Laroque-de-Fa, Lastours, Laure-Minervois, Leucate, Lézignan-Corbières, Limoux, Limousis, Loupia, Luc-sur-Aude, Luc-sur-Orbieu, Mailhac, Mayronnes, Maisons, Magrie, Malras, Malves-en-Minervois, Marseillette, Mirepeisset, Montazels, Montbrun-des-Corbières, Montgaillard, Montirat, Montlaur, Montolieu, Montredon-des-Corbières, Montséret, Monze, Moussoulens, Moux, Narbonne, Névian, Ornaisons, Padern, Palairac, La Palme, Paraza, Pauligne, Paziols, Pépieux, Peyriac-de-Mer, Peyriac-Minervois, Peyrolles, Pezens, Pennautier, Pieusse, Pomas, Port-la-Nouvelle, Portel-des-Corbières, Pouzols-Minervois, Pradelles-en-Val, Puichéric, Quintillan, La Redorte, Ribaute, Rieux-en-Val, Rieux-Minervois, Roquecourbe-Minervois, Roquefort-des-Corbières, Roquetaillade, Rouffiac-d'Aude, Roubia, Rouffiac-des-Corbières, Rustiques, Saint-André-de-Roquelongue, Saint-Couat-d'Aude, Saint-Couat-du-Razès, Sainte-Eulalie, Saint-Frichoux, Saint-Hilaire, Saint-Jean-de-Barrou, Saint-Laurent-de-la-Cabrerisse, Saint-Nazaire-d'Aude, Saint-Pierre-des-Champs, Saint-Polycarpe, Sainte-Valière, Salles-d'Aude, Sallèles-Cabardès, Salsigne, La Serpent, Serres, Serviès-en-Val, Sigean, Talairan, Taurize, Termes, Thézan-des-Corbières, Tournissan, Tourouzelle, Tourreilles, Trassanel, Trausse, Trèbes, Treilles, Tuchan, Ventenac-Cabardès, Ventenac-en-Minervois, Vignevieille, Villanière, Villalier, Villar-en-Val, Villar-Saint-Anselme, Villardonnel, Villarzel-Cabardès, Villebazy, Villedubert, Villegailhenc, Villegly, Villelongue-d'Aude, Villemoustaussou, Villeneuve-les-Corbières, Villeneuve-Minervois, Villerouge-Termenès, Villesèque-des-Corbières, Villetritouls et Vinassan.
@@ -800,7 +830,9 @@
           <t>Lorraine</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Côtes-de-Meuse
 Trésauvaux, Combres-sous-les-Côtes, Herbeuville, Hannonville-sous-les-Côtes, Thillot, Saint-Maurice-sous-les-Côtes, Hattonville, Vigneulles-lès-Hattonchâtel (y compris Billy-sous-les-Côtes, Creuë et Viéville-sous-les-Côtes), Heudicourt-sous-les-Côtes, Buxières-sous-les-Côtes et Buxerulles.
@@ -837,6 +869,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -862,7 +896,9 @@
           <t>Provence</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Aix-en-Provence, Bandol, Les Baux-de-Provence, Le Beausset, Besse-sur-Issole, Brignoles, La Cadière-d'Azur, Carcès, Cassis, Le Castellet, Correns, La Croix Valmer, Draguignan, Eguilles, Flassans-sur-Issole, Fréjus, Garéoult, Gassin, Gignac-la-Nerthe, Grimaud, Hyères, La Londe-les-Maures, Lançon-Provence, Lorgues, Manosque, Meyreuil, Miramas, Mouriès, Nice, Pierrevert, Puget-sur-Argens, Puyloubier, Rians, Rognes, Roquefort-la-Bédoule, Saint-Cannat, Saint-Cyr-sur-Mer, Saint-Rémy-de-Provence, Saint-Tropez, Trets, Venelles, Vernègues, Vidauban.
 </t>
@@ -893,7 +929,9 @@
           <t>Savoie</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Apremont, Arbin, Chignin, Cruet et Saint-Jean-de-la-Porte.
 </t>
@@ -924,7 +962,9 @@
           <t>Sud-Ouest</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Communes du vignoble de Bergerac : Baneuil, Bergerac, Boisse, Bonneville-et-Saint-Avit-de-Fumadières, Bouniagues, Campsegret, Carsac-de-Gurson, Colombier, Conne-de-Labarde, Cours-de-Pile, Creysse, Cunèges, Eymet, Faurilles, Flaugeac, Le Fleix, Fonroque, La Force, Fougueyrolles, Fraisse, Gageac-et-Rouillac, Gardonne, Ginestet, Issigeac, Lalinde, Lamonzie-Saint-Martin, Lamothe-Montravel, Lanquais, Les Lèches, Lembras, Lunas, Maurens, Mescoules, Minzac, Monbazillac, Monestier, Monfaucon, Monmadalès, Monmarvès, Monsaguel, Montazeau, Montcaret, Montpeyroux, Mouleydier, Moulin-Neuf, Nastringues, Naussannes, Nojals-et-Clotte, Plaisance, Pomport, Port-Sainte-Foy-et-Ponchapt, Prigonrieux, Queyssac, Rampieux, Razac-d'Eymet, Razac-de-Saussignac, Ribagnac, Rouffignac-de-Sigoulès, Sadillac, Saint-Agne, Saint-Antoine-de-Breuilh, Saint-Aubin-de-Cadelech, Saint-Aubin-de-Lanquais, Saint-Capraise-d'Eymet, Saint-Cernin-de-Labarde, Saint-Germain-et-Mons, Saint-Géry, Saint-Julien-d'Eymet, Saint-Laurent-des-Vignes, Saint-Léon-d'Issigeac, Saint-Martin-de-Gurçon, Saint-Méard-de-Gurçon, Saint-Michel-de-Montaigne, Saint-Nexans, Saint-Perdoux, Saint-Pierre-d'Eyraud, Saint-Rémy, Saint-Sauveur, Saint-Seurin-de-Prats, Saint-Vivien, Sainte-Eulalie-d'Eymet, Sainte-Innocence, Saussignac, Serres-et-Montguyard, Sigoulès, Singleyrac, Thénac, Vélines, Verdon et Villefranche-de-Lonchat.
 Communes de l'appellation Cahors : Albas, Anglars-Juillac, Arcambal, Bagat-en-Quercy, Bélaye, Le Boulvé, Cahors, Caillac, Cambayrac, Carnac-Rouffiac, Castelfranc, Catus, Cieurac, Crayssac, Douelle, Duravel, Fargues, Flaujac-Poujols, Floressas, Grézels, Labastide-du-Vert, Lacapelle-Cabanac, Lagardelle, Lamagdelaine, Luzech, Mauroux, Mercuès, Nuzéjouls, Parnac, Pescadoires, Pontcirq, Pradines, Prayssac, Puy-l'Évêque, Saint-Matré, Saint-Médard, Saint-Vincent-Rive-d'Olt, Saux, Sauzet, Sérignac, Soturac, Touzac, Trespoux-Rassiels, Villesèque et Vire-sur-Lot.
@@ -958,7 +998,9 @@
           <t>Val de Loire</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Amboise, Azay-le-Rideau, Beaulieu-sur-Layon, Boudes, Bourgueil, Brinay, Brissac, Champ-sur-Layon, La Chapelle-Heulin, Châteaumeillan, Chavignol, Chinon, Cosne-sur-Loire, Faye-d'Anjou, Fougères, Lazenay, Mareau-aux-Prés, Mozé-sur-Louet, Notre-Dame-d'Allençon, Pouilly-sur-Loire, Renaison, Reuilly, Saint-Florent-le-Vieil, Saint-Just-sur-Dive, Saint-Lambert-du-Lattay, Saint-Melaine-sur-Aubance, Saint-Nicolas-de-Bourgueil, Saint-Pourçain, Sainte-Lizaigne, Sancerre, Thouarcé, Vertou, Villemontais, Vouvray.
 </t>
@@ -991,8 +1033,13 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Côtes du Rhône
-Département de l'Ardèche
+          <t>Côtes du Rhône</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Département de l'Ardèche
 Andance, Ardoix, Arras-sur-Rhône, Bourg-Saint-Andéol, Champagne, Charnas, Châteaubourg, Cornas, Félines, Glun, Guilherand-Granges, Lemps, Limony, Mauves, Ozon, Peyraud, Sarras, Sécheras, Serrières, Saint-Désirat, Saint-Étienne-de-Valoux, Saint-Jean-de-Muzols, Saint-Julien-en-Saint-Alban, Saint-Just-d'Ardèche, Saint-Marcel-d'Ardèche, Saint-Martin-d'Ardèche, Saint-Péray, Talencieux, Toulaud, Tournon-sur-Rhône et Vion.
 Département de la Drôme
 Beaumont-Monteux, Bouchet, Chanos-Curson, Crozes-Hermitage, Érôme, Gervans, Larnage, La Roche-de-Glun, Livron-sur-Drôme, Mercurol, Mérindol-les-Oliviers, Mirabel-aux-Baronnies, Mollans-sur-Ouvèze, Montbrison-sur-Lez, Nyons, Le Pègue, Piégon, Pont-de-l'Isère, Rochegude, Rousset-les-Vignes, Saint-Maurice-sur-Eygues, Saint-Pantaléon-les-Vignes, Serves-sur-Rhône, Suze-la-Rousse, Tain-l'Hermitage, Taulignan, Tulette, Venterol et Vinsobres.
@@ -1004,21 +1051,265 @@
 Ampuis, Condrieu, Saint-Cyr-sur-le-Rhône et Tupin-et-Semons.
 Département de Vaucluse
 Avignon, Beaumes-de-Venise, Bédarrides, Bollène, Buisson, Cairanne, Camaret-sur-Aigues, Caumont-sur-Durance, Châteauneuf-de-Gadagne, Châteauneuf-du-Pape, Courthézon, Faucon, Gigondas, Grillon, Jonquerettes, Jonquières, Lafare, Lagarde-Paréol, Mondragon, Morières-lès-Avignon, Mornas, Orange, Piolenc, Puyméras, Rasteau, Richerenches, Roaix, La Roque-Alric, Sablet, Sainte-Cécile-les-Vignes, Saint-Marcellin-lès-Vaison, Saint-Romain-en-Viennois, Saint-Roman-de-Malegarde, Saint-Saturnin-lès-Avignon, Sarrians, Séguret, Sérignan-du-Comtat, Sorgues, Suzette, Travaillan, Uchaux, Vacqueyras, Vaison-la-Romaine, Valréas, Vedène, Villedieu, Violès et Visan.
-Clairette de Die et crémant de Die
-Aix-en-Diois, Aouste-sur-Sye, Aubenasson, Aurel, Barsac, Barnave, Beaufort-sur-Gervanne, Châtillon-en-Diois, Die, Espenel, Laval-d'Aix, Luc-en-Diois, Menglon, Mirabel-et-Blacons, Molières-Glandaz, Montclar-sur-Gervanne, Montlaur-en-Diois, Montmaur-en-Diois, Piégros-la-Clastre, Ponet-et-Saint-Auban, Pontaix, Poyols, Recoubeau-Jansac, Saillans, Saint-Benoit-en-Diois, Saint-Roman, Saint-Sauveur-en-Diois, Sainte-Croix, Suze-sur-Crest, Vercheny et Véronne.
-Grignan-les-adhémar
-Allan (Drôme), La Baume-de-Transit, Béconne, Chamaret, Chantemerle-lès-Grignan, Châteauneuf-du-Rhône, Clansayes, Colonzelle, Donzère, Grignan, La Garde-Adhémar, Les Granges-Gontardes, Malataverne, Montségur-sur-Lauzon, Réauville, La Roche-Saint-Secret, Roussas, Salles-sous-Bois, Saint-Paul-Trois-Châteaux, Saint-Restitut, Solérieux et Valaurie.
-Ventoux
-Apt, Aubignan, Le Barroux, Le Beaucet, Les Beaumettes, Beaumont-du-Ventoux, Bédoin, Blauvac, Bonnieux, Cabrières-d'Avignon, Caromb, Carpentras, Caseneuve, Crestet, Crillon-le-Brave, Entrechaux, Flassan, Fontaine-de-Vaucluse, Gargas, Gignac, Gordes, Goult, Joucas, Lagnes, Lioux, Loriol-du-Comtat, Malaucène, Malemort-du-Comtat, Maubec, Mazan, Méthamis, Modène, Mormoiron, Murs, Pernes-les-Fontaines, Robion, La Roque-sur-Pernes, Roussillon, Rustrel, Saignon, Saint-Didier, Saint-Hippolyte-le-Graveyron, Saint-Pantaléon, Saint-Pierre-de-Vassols, Saint-Saturnin-lès-Apt, Saumane-de-Vaucluse, Venasque, Viens, Villars et Villes-sur-Auzon.
-Luberon
-Ansouis, Apt, Auribeau, La Bastide-des-Jourdans, La Bastidonne, Beaumont-de-Pertuis, Bonnieux, Cabrières-d'Aigues, Cadenet, Castellet, Cheval-Blanc, Cucuron, Goult, Grambois, Lacoste, Lauris, Lourmarin, Maubec, Ménerbes, Mérindol, Mirabeau, La Motte-d'Aigues, Oppède, Pertuis, Peypin-d'Aigues, Puget-sur-Durance, Puyvert, Robion, Saignon, Saint-Martin-de-Castillon, Saint-Martin-de-la-Brasque, Sannes, les Taillades, La Tour-d'Aigues, Vaugines, Villelaure et Vitrolles-en-Luberon.
-Côtes-du-vivarais
-Ardèche : Bidon, Gras, Labastide-de-Virac, Lagorce, Larnas, Orgnac-l'Aven, Saint-Montan, Saint-Remèze, Vinezac
-Gard : Barjac, Le Garn, Issirac, Montclus et Saint-Privat-de-Champclos.
-Costières-de-nîmes
-Aubord, Beaucaire, Beauvoisin, Bellegarde, Bernis, Bezouce, Bouillargues, Le Cailar, Caissargues, Garons, Générac, Jonquières-Saint-Vincent, Lédenon, Manduel, Meynes, Milhaud, Nîmes, Redessan, Rodilhan, Saint-Gilles, Sernhac, Uchaud, Vauvert et Vestric-et-Candiac.
-Duché-d'uzès
-Aigaliers, Aigremont, Arpaillargues-et-Aureillac, Aubussargues, Bagard, Baron, Belvézet, Blauzac, Bourdic, Bragassargues, Brignon, Canaules-et-Argentières, Cardet, Cassagnoles, Castelnau-Valence, Collorgues, Cruviers-Lascours, Dions, Durfort-et-Saint-Martin-de-Sossenac, Flaux, Foissac, Fons, Fontarèches, Fressac, Gajan, Garrigues-Sainte-Eulalie, Goudargues, La Bastide-d'Engras, La Bruguière, La Calmette, La Capelle-et-Masmolène, La Rouvière, Lédignan, Lézan, Logrian-Florian, Martignargues, Maruéjols-lès-Gardon, Massanes, Massillargues-Attuech, Monoblet, Montaren-et-Saint-Médiers, Moussac, Ners, Puechredon, Ribaute-les-Tavernes, Saint-André-de-Roquepertuis, Saint-Bauzély, Saint-Bénézet, Saint-Césaire-de-Gauzignan, Saint-Chaptes, Saint-Christol-lès-Alès, Saint-Dézéry, Sainte-Anastasie, Saint-Félix-de-Pallières, Saint-Hippolyte-de-Montaigu, Saint-Jean-de-Ceyrargues, Saint-Jean-de-Crieulon, Saint-Jean-de-Serres, Saint-Jean-du-Pin, Saint-Laurent-la-Vernède, Saint-Maurice-de-Cazevieille, Saint-Maximin, Saint-Nazaire-des-Gardies, Saint-Quentin-la-Poterie, Saint-Siffret, Saint-Théodorit, Saint-Victor-des-Oules, Sanilhac-Sagriès, Sauve, Savignargues, Serviers-et-Labaume, Seynes, Tornac, Uzès, Vallabrix, Verfeuil,   Vézénobres
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Clairette de Die et crémant de Die</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aix-en-Diois, Aouste-sur-Sye, Aubenasson, Aurel, Barsac, Barnave, Beaufort-sur-Gervanne, Châtillon-en-Diois, Die, Espenel, Laval-d'Aix, Luc-en-Diois, Menglon, Mirabel-et-Blacons, Molières-Glandaz, Montclar-sur-Gervanne, Montlaur-en-Diois, Montmaur-en-Diois, Piégros-la-Clastre, Ponet-et-Saint-Auban, Pontaix, Poyols, Recoubeau-Jansac, Saillans, Saint-Benoit-en-Diois, Saint-Roman, Saint-Sauveur-en-Diois, Sainte-Croix, Suze-sur-Crest, Vercheny et Véronne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Grignan-les-adhémar</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allan (Drôme), La Baume-de-Transit, Béconne, Chamaret, Chantemerle-lès-Grignan, Châteauneuf-du-Rhône, Clansayes, Colonzelle, Donzère, Grignan, La Garde-Adhémar, Les Granges-Gontardes, Malataverne, Montségur-sur-Lauzon, Réauville, La Roche-Saint-Secret, Roussas, Salles-sous-Bois, Saint-Paul-Trois-Châteaux, Saint-Restitut, Solérieux et Valaurie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ventoux</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apt, Aubignan, Le Barroux, Le Beaucet, Les Beaumettes, Beaumont-du-Ventoux, Bédoin, Blauvac, Bonnieux, Cabrières-d'Avignon, Caromb, Carpentras, Caseneuve, Crestet, Crillon-le-Brave, Entrechaux, Flassan, Fontaine-de-Vaucluse, Gargas, Gignac, Gordes, Goult, Joucas, Lagnes, Lioux, Loriol-du-Comtat, Malaucène, Malemort-du-Comtat, Maubec, Mazan, Méthamis, Modène, Mormoiron, Murs, Pernes-les-Fontaines, Robion, La Roque-sur-Pernes, Roussillon, Rustrel, Saignon, Saint-Didier, Saint-Hippolyte-le-Graveyron, Saint-Pantaléon, Saint-Pierre-de-Vassols, Saint-Saturnin-lès-Apt, Saumane-de-Vaucluse, Venasque, Viens, Villars et Villes-sur-Auzon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Luberon</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ansouis, Apt, Auribeau, La Bastide-des-Jourdans, La Bastidonne, Beaumont-de-Pertuis, Bonnieux, Cabrières-d'Aigues, Cadenet, Castellet, Cheval-Blanc, Cucuron, Goult, Grambois, Lacoste, Lauris, Lourmarin, Maubec, Ménerbes, Mérindol, Mirabeau, La Motte-d'Aigues, Oppède, Pertuis, Peypin-d'Aigues, Puget-sur-Durance, Puyvert, Robion, Saignon, Saint-Martin-de-Castillon, Saint-Martin-de-la-Brasque, Sannes, les Taillades, La Tour-d'Aigues, Vaugines, Villelaure et Vitrolles-en-Luberon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Côtes-du-vivarais</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ardèche : Bidon, Gras, Labastide-de-Virac, Lagorce, Larnas, Orgnac-l'Aven, Saint-Montan, Saint-Remèze, Vinezac
+Gard : Barjac, Le Garn, Issirac, Montclus et Saint-Privat-de-Champclos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Costières-de-nîmes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aubord, Beaucaire, Beauvoisin, Bellegarde, Bernis, Bezouce, Bouillargues, Le Cailar, Caissargues, Garons, Générac, Jonquières-Saint-Vincent, Lédenon, Manduel, Meynes, Milhaud, Nîmes, Redessan, Rodilhan, Saint-Gilles, Sernhac, Uchaud, Vauvert et Vestric-et-Candiac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_communes_viticoles_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duché-d'uzès</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aigaliers, Aigremont, Arpaillargues-et-Aureillac, Aubussargues, Bagard, Baron, Belvézet, Blauzac, Bourdic, Bragassargues, Brignon, Canaules-et-Argentières, Cardet, Cassagnoles, Castelnau-Valence, Collorgues, Cruviers-Lascours, Dions, Durfort-et-Saint-Martin-de-Sossenac, Flaux, Foissac, Fons, Fontarèches, Fressac, Gajan, Garrigues-Sainte-Eulalie, Goudargues, La Bastide-d'Engras, La Bruguière, La Calmette, La Capelle-et-Masmolène, La Rouvière, Lédignan, Lézan, Logrian-Florian, Martignargues, Maruéjols-lès-Gardon, Massanes, Massillargues-Attuech, Monoblet, Montaren-et-Saint-Médiers, Moussac, Ners, Puechredon, Ribaute-les-Tavernes, Saint-André-de-Roquepertuis, Saint-Bauzély, Saint-Bénézet, Saint-Césaire-de-Gauzignan, Saint-Chaptes, Saint-Christol-lès-Alès, Saint-Dézéry, Sainte-Anastasie, Saint-Félix-de-Pallières, Saint-Hippolyte-de-Montaigu, Saint-Jean-de-Ceyrargues, Saint-Jean-de-Crieulon, Saint-Jean-de-Serres, Saint-Jean-du-Pin, Saint-Laurent-la-Vernède, Saint-Maurice-de-Cazevieille, Saint-Maximin, Saint-Nazaire-des-Gardies, Saint-Quentin-la-Poterie, Saint-Siffret, Saint-Théodorit, Saint-Victor-des-Oules, Sanilhac-Sagriès, Sauve, Savignargues, Serviers-et-Labaume, Seynes, Tornac, Uzès, Vallabrix, Verfeuil,   Vézénobres
 </t>
         </is>
       </c>
